--- a/N63_theo dõi tuần.xlsx
+++ b/N63_theo dõi tuần.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\TTCNPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NhoiBK\Desktop\TTCNPM\TTCNPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F70459D-9FC0-4043-8295-D9670977D183}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,17 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -208,12 +204,18 @@
   </si>
   <si>
     <t>Bổ Sung lại bảng dữ liệu và code hiển thị chi tiết của vé , nghiên cứu đặt chổ ba loại xe (16 chổ , 52 chổ ngồi ghế và xe giường nằm)</t>
+  </si>
+  <si>
+    <t>design và code phần giao diện trang chủ</t>
+  </si>
+  <si>
+    <t>https://github.com/NhoiBK195</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,6 +628,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,15 +644,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -958,23 +960,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -997,7 +999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1016,8 +1018,11 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1037,7 +1042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1077,7 +1082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1099,11 +1104,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D2" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -1111,16 +1116,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1134,24 +1139,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="2" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>42</v>
       </c>
@@ -1172,11 +1177,11 @@
       </c>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>43549</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="31">
         <v>43555</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1193,9 +1198,9 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
-      <c r="B3" s="35"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
@@ -1210,9 +1215,9 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
-      <c r="B4" s="35"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1227,9 +1232,9 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
-      <c r="B5" s="35"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1244,9 +1249,9 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
-      <c r="B6" s="36"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
@@ -1261,11 +1266,11 @@
       </c>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>43556</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="34">
         <v>43562</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1282,9 +1287,9 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1299,9 +1304,9 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1316,9 +1321,9 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
@@ -1333,9 +1338,9 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
-      <c r="B11" s="33"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="11" t="s">
         <v>53</v>
       </c>
@@ -1350,11 +1355,11 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>43563</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="34">
         <v>43569</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1369,9 +1374,9 @@
       <c r="F12" s="20"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
@@ -1382,22 +1387,24 @@
       <c r="F13" s="21"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
-      <c r="B15" s="32"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="4" t="s">
         <v>55</v>
       </c>
@@ -1408,9 +1415,9 @@
       <c r="F15" s="21"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="11" t="s">
         <v>53</v>
       </c>
@@ -1421,123 +1428,123 @@
       <c r="F16" s="22"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>43570</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="34">
         <v>43576</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
+      <c r="B18" s="35"/>
       <c r="F18" s="23"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="F19" s="23"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="F20" s="23"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30"/>
-      <c r="B21" s="33"/>
+      <c r="B21" s="36"/>
       <c r="F21" s="25"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>43577</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="34">
         <v>43583</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="F23" s="23"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
+      <c r="B24" s="35"/>
       <c r="F24" s="23"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="F25" s="23"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30"/>
-      <c r="B26" s="33"/>
+      <c r="B26" s="36"/>
       <c r="F26" s="25"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
         <v>43584</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="34">
         <v>43590</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
-      <c r="B28" s="32"/>
+      <c r="B28" s="35"/>
       <c r="F28" s="23"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
-      <c r="B29" s="32"/>
+      <c r="B29" s="35"/>
       <c r="F29" s="23"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
-      <c r="B30" s="32"/>
+      <c r="B30" s="35"/>
       <c r="F30" s="23"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30"/>
-      <c r="B31" s="33"/>
+      <c r="B31" s="36"/>
       <c r="F31" s="25"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B31"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/N63_theo dõi tuần.xlsx
+++ b/N63_theo dõi tuần.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NhoiBK\Desktop\TTCNPM\TTCNPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\TTCNPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F70459D-9FC0-4043-8295-D9670977D183}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,19 +202,19 @@
     <t xml:space="preserve">Nguyễn Lê Thanh Điệp </t>
   </si>
   <si>
-    <t>Bổ Sung lại bảng dữ liệu và code hiển thị chi tiết của vé , nghiên cứu đặt chổ ba loại xe (16 chổ , 52 chổ ngồi ghế và xe giường nằm)</t>
-  </si>
-  <si>
     <t>design và code phần giao diện trang chủ</t>
   </si>
   <si>
     <t>https://github.com/NhoiBK195</t>
+  </si>
+  <si>
+    <t>Bổ Sung lại bảng dữ liệu, code hiển thị chi tiết của vé , nghiên cứu đặt chổ ba loại xe (16 chổ , 52 chổ ngồi ghế và xe giường nằm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,6 +627,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -635,15 +643,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -960,23 +959,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -999,7 +998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1019,10 +1018,10 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1062,7 +1061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1082,7 +1081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1104,11 +1103,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -1116,21 +1115,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1139,24 +1138,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.88671875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>42</v>
       </c>
@@ -1177,11 +1176,11 @@
       </c>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>43549</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="34">
         <v>43555</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1198,9 +1197,9 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
-      <c r="B3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
@@ -1215,9 +1214,9 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1232,9 +1231,9 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1249,9 +1248,9 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
@@ -1266,11 +1265,11 @@
       </c>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>43556</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="31">
         <v>43562</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1287,9 +1286,9 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
-      <c r="B8" s="35"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1304,9 +1303,9 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1321,9 +1320,9 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
-      <c r="B10" s="35"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
@@ -1338,9 +1337,9 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
-      <c r="B11" s="36"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="11" t="s">
         <v>53</v>
       </c>
@@ -1355,11 +1354,11 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>43563</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="31">
         <v>43569</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1374,9 +1373,9 @@
       <c r="F12" s="20"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="35"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
@@ -1387,9 +1386,9 @@
       <c r="F13" s="21"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
-      <c r="B14" s="35"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="4" t="s">
         <v>51</v>
       </c>
@@ -1397,14 +1396,14 @@
         <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
-      <c r="B15" s="35"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="4" t="s">
         <v>55</v>
       </c>
@@ -1415,9 +1414,9 @@
       <c r="F15" s="21"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
-      <c r="B16" s="36"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="11" t="s">
         <v>53</v>
       </c>
@@ -1428,123 +1427,123 @@
       <c r="F16" s="22"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>43570</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="31">
         <v>43576</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="35"/>
+      <c r="B18" s="32"/>
       <c r="F18" s="23"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="35"/>
+      <c r="B19" s="32"/>
       <c r="F19" s="23"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="32"/>
       <c r="F20" s="23"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
-      <c r="B21" s="36"/>
+      <c r="B21" s="33"/>
       <c r="F21" s="25"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>43577</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="31">
         <v>43583</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="32"/>
       <c r="F23" s="23"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
-      <c r="B24" s="35"/>
+      <c r="B24" s="32"/>
       <c r="F24" s="23"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="35"/>
+      <c r="B25" s="32"/>
       <c r="F25" s="23"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
-      <c r="B26" s="36"/>
+      <c r="B26" s="33"/>
       <c r="F26" s="25"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>43584</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="31">
         <v>43590</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
-      <c r="B28" s="35"/>
+      <c r="B28" s="32"/>
       <c r="F28" s="23"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
-      <c r="B29" s="35"/>
+      <c r="B29" s="32"/>
       <c r="F29" s="23"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
-      <c r="B30" s="35"/>
+      <c r="B30" s="32"/>
       <c r="F30" s="23"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
-      <c r="B31" s="36"/>
+      <c r="B31" s="33"/>
       <c r="F31" s="25"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/N63_theo dõi tuần.xlsx
+++ b/N63_theo dõi tuần.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Bổ Sung lại bảng dữ liệu, code hiển thị chi tiết của vé , nghiên cứu đặt chổ ba loại xe (16 chổ , 52 chổ ngồi ghế và xe giường nằm)</t>
+  </si>
+  <si>
+    <t>Nghiên cứu code phần tìm kiếm chuyến đi và phân trang web</t>
   </si>
 </sst>
 </file>
@@ -627,6 +630,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,15 +646,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1116,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,6 +1133,14 @@
       </c>
       <c r="D1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1191,7 @@
       <c r="A2" s="28">
         <v>43549</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="31">
         <v>43555</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1199,7 +1210,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
-      <c r="B3" s="35"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
@@ -1216,7 +1227,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
-      <c r="B4" s="35"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1233,7 +1244,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
-      <c r="B5" s="35"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1250,7 +1261,7 @@
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
-      <c r="B6" s="36"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
@@ -1269,7 +1280,7 @@
       <c r="A7" s="28">
         <v>43556</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="34">
         <v>43562</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1288,7 +1299,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1305,7 +1316,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1322,7 +1333,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
@@ -1339,7 +1350,7 @@
     </row>
     <row r="11" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
-      <c r="B11" s="33"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="11" t="s">
         <v>53</v>
       </c>
@@ -1358,7 +1369,7 @@
       <c r="A12" s="28">
         <v>43563</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="34">
         <v>43569</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1375,7 +1386,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
@@ -1388,7 +1399,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="4" t="s">
         <v>51</v>
       </c>
@@ -1403,7 +1414,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
-      <c r="B15" s="32"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="4" t="s">
         <v>55</v>
       </c>
@@ -1416,7 +1427,7 @@
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="11" t="s">
         <v>53</v>
       </c>
@@ -1431,7 +1442,7 @@
       <c r="A17" s="28">
         <v>43570</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="34">
         <v>43576</v>
       </c>
       <c r="F17" s="24"/>
@@ -1439,25 +1450,25 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
+      <c r="B18" s="35"/>
       <c r="F18" s="23"/>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="F19" s="23"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="F20" s="23"/>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
-      <c r="B21" s="33"/>
+      <c r="B21" s="36"/>
       <c r="F21" s="25"/>
       <c r="G21" s="16"/>
     </row>
@@ -1465,7 +1476,7 @@
       <c r="A22" s="28">
         <v>43577</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="34">
         <v>43583</v>
       </c>
       <c r="F22" s="24"/>
@@ -1473,25 +1484,25 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="F23" s="23"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
+      <c r="B24" s="35"/>
       <c r="F24" s="23"/>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="F25" s="23"/>
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
-      <c r="B26" s="33"/>
+      <c r="B26" s="36"/>
       <c r="F26" s="25"/>
       <c r="G26" s="16"/>
     </row>
@@ -1499,7 +1510,7 @@
       <c r="A27" s="28">
         <v>43584</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="34">
         <v>43590</v>
       </c>
       <c r="F27" s="24"/>
@@ -1507,43 +1518,43 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
-      <c r="B28" s="32"/>
+      <c r="B28" s="35"/>
       <c r="F28" s="23"/>
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
-      <c r="B29" s="32"/>
+      <c r="B29" s="35"/>
       <c r="F29" s="23"/>
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
-      <c r="B30" s="32"/>
+      <c r="B30" s="35"/>
       <c r="F30" s="23"/>
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
-      <c r="B31" s="33"/>
+      <c r="B31" s="36"/>
       <c r="F31" s="25"/>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B31"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/N63_theo dõi tuần.xlsx
+++ b/N63_theo dõi tuần.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\TTCNPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NhoiBK\Desktop\TTCNPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76058B95-9799-4714-8FB8-71670BBCAFDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -199,26 +200,112 @@
     <t>code và thiết kế giao diện đặt vé xe</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Lê Thanh Điệp </t>
-  </si>
-  <si>
     <t>design và code phần giao diện trang chủ</t>
   </si>
   <si>
     <t>https://github.com/NhoiBK195</t>
   </si>
   <si>
-    <t>Bổ Sung lại bảng dữ liệu, code hiển thị chi tiết của vé , nghiên cứu đặt chổ ba loại xe (16 chổ , 52 chổ ngồi ghế và xe giường nằm)</t>
-  </si>
-  <si>
-    <t>Nghiên cứu code phần tìm kiếm chuyến đi và phân trang web</t>
+    <t>thiết kế giỏ hàng, liên kết các pages với trang chủ</t>
+  </si>
+  <si>
+    <t>code giỏ hàng , thêm background</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Tên git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liem_upload </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liem_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add files via upload </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update index.php </t>
+  </si>
+  <si>
+    <t>Ngày up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update N63_theo dõi tuần.xlsx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create README.md </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create N63_Liêm_updateCode.rar </t>
+  </si>
+  <si>
+    <r>
+      <t>Merge branch 'master' of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF444D56"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/NhoiBK195/TTCNPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">khang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">huong </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update style.css </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update banve.php </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liem_2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liem_3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">demo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liem_4 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +328,44 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF444D56"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF444D56"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF586069"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -544,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -648,6 +773,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -962,23 +1095,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1001,7 +1134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1021,10 +1154,10 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1044,7 +1177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1064,7 +1197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1084,7 +1217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1106,11 +1239,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D2" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -1118,55 +1251,559 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="39"/>
+    <col min="2" max="2" width="20.21875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="40" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="39"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="41">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="44">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
+        <v>2</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="43">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="41">
+        <v>3</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="44">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="41">
+        <v>4</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="43">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="41">
+        <v>5</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>61</v>
+      <c r="C6" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="44">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="41">
+        <v>6</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="43">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="41">
+        <v>7</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="44">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="41">
+        <v>8</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="43">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="41">
+        <v>9</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="44">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="41">
+        <v>10</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="43">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
+        <v>11</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="43">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="41">
+        <v>12</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="43">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="41">
+        <v>13</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="43">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="41">
+        <v>14</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="43">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="41">
+        <v>15</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="43">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="41">
+        <v>16</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="43">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="41">
+        <v>17</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="43">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="41">
+        <v>18</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="40">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="41">
+        <v>19</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="43">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="41">
+        <v>20</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="40">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="41">
+        <v>21</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="43">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="41">
+        <v>22</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="40">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="41">
+        <v>23</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="43">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="41">
+        <v>24</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="40">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="41">
+        <v>25</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="40">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="41">
+        <v>26</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="43">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="41">
+        <v>27</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="40">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="41">
+        <v>28</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="40">
+        <v>43582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="41">
+        <v>29</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="40">
+        <v>43589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="41">
+        <v>30</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="40">
+        <v>43589</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="41">
+        <v>31</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="40">
+        <v>43589</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="41">
+        <v>32</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="40">
+        <v>43591</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="41">
+        <v>33</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="40">
+        <v>43596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="41">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://github.com/NhoiBK195/TTCNPM/commit/94eae3e5cf9451668c36058573f8b652bfd0553f" xr:uid="{6B91FCAB-DFAF-478D-9D07-80817DFCE8FA}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://github.com/NhoiBK195/TTCNPM/commit/08bd66b20c23905664f567d30aeecd4185fbcac9" xr:uid="{5B4897CD-5089-4342-91A0-DEE951ED0DAD}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://github.com/NhoiBK195/TTCNPM/commit/73b12e53955fcff0bb3e68196cb8483e9e9d294c" xr:uid="{F105AFFB-C539-4B23-8359-7A104D90657E}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://github.com/NhoiBK195/TTCNPM/commit/82cd45eb394b77e9b1a80c9e0c0c388669af3dea" xr:uid="{14811D2E-30C8-42CE-ACFD-DF33310EFD94}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://github.com/NhoiBK195/TTCNPM/commit/b18a86fdc6ea3e5f5589c632416300c646d503de" xr:uid="{66E73FFA-8D21-4061-94FA-660E29F5CB37}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://github.com/NhoiBK195/TTCNPM/commit/222d4f4da6f9a5dd9932cc2670efa72c1d548989" xr:uid="{F8BE2944-9674-4180-9BAA-26FE77B1F467}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://github.com/NhoiBK195/TTCNPM/commit/03ff778d1a1859c2c2208ec9d295bd054c2fbe58" xr:uid="{A0091A72-D02A-40C0-B6E3-8954109CBB2B}"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://github.com/NhoiBK195/TTCNPM/commit/3870da96da206b233a4cda31a08107fcf1acbcc2" xr:uid="{6B9E07CB-8C39-414F-99FD-1E9CBA2AE734}"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://github.com/NhoiBK195/TTCNPM/commit/21fba43e6ab0f953fbcedf593e4398a599da448d" xr:uid="{81925A67-AE6F-456C-96C1-5F914917C0F3}"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://github.com/NhoiBK195/TTCNPM/commit/34681176c673a382bbeebbae567eebac53ae466a" xr:uid="{9DF30B9D-2B65-49A4-B1E3-F88569A20B81}"/>
+    <hyperlink ref="C13" r:id="rId11" display="https://github.com/NhoiBK195/TTCNPM/commit/87e8a1328ab19c6e52f3b6fff64f063530b56735" xr:uid="{FD255289-40C2-437B-8B6C-74BA3090CECD}"/>
+    <hyperlink ref="C14" r:id="rId12" display="https://github.com/NhoiBK195/TTCNPM/commit/97e56ccd77b83c17699950124447820a1aad956a" xr:uid="{46CD1F04-C082-44A6-9F04-D95C025672F5}"/>
+    <hyperlink ref="C15" r:id="rId13" display="https://github.com/NhoiBK195/TTCNPM/commit/f147ec03206ae2ee8ba43097ce207ef19c296fea" xr:uid="{74CB8507-8BA6-4EF9-BE4E-8B8130F401DB}"/>
+    <hyperlink ref="C16" r:id="rId14" display="https://github.com/NhoiBK195/TTCNPM/commit/58c38fdc598bd535be9a813f6340e263cb29dc9f" xr:uid="{57281778-56D3-4775-A2DF-3835A4651ED8}"/>
+    <hyperlink ref="C17" r:id="rId15" display="https://github.com/NhoiBK195/TTCNPM/commit/e255fd66f3db554aceea53272dc07bd3fbddf1f4" xr:uid="{F024B15C-8850-4E78-A94C-5B5FB0806A6E}"/>
+    <hyperlink ref="C18" r:id="rId16" display="https://github.com/NhoiBK195/TTCNPM/commit/867ac783a65d8911e0e3d532fbd6974b3b7ec1c9" xr:uid="{A3840EA0-2FBD-47E8-9B69-9B9EF00D11A6}"/>
+    <hyperlink ref="C19" r:id="rId17" display="https://github.com/NhoiBK195/TTCNPM/commit/d280db548817a449f9c7281923c69abaee82a527" xr:uid="{D2360C9B-F507-4CAA-BB0B-2D8B4C209571}"/>
+    <hyperlink ref="C21" r:id="rId18" display="https://github.com/NhoiBK195/TTCNPM/commit/4e0e74ddd16b3f92a1312eba8c92346f84d017ea" xr:uid="{17B6EB87-DE6F-43C2-8A4B-2AAB079989E4}"/>
+    <hyperlink ref="C22" r:id="rId19" display="https://github.com/NhoiBK195/TTCNPM/commit/fa893a65b260c06ca069558358ca0551d6675ec6" xr:uid="{D870417A-186A-4832-AAE7-D677DB32C590}"/>
+    <hyperlink ref="C23" r:id="rId20" display="https://github.com/NhoiBK195/TTCNPM/commit/6ca39d70fd8f33bbf47b0b41a453f6c7285e09e1" xr:uid="{B9BF71C5-E51D-4301-8DFB-BFE5A50F0753}"/>
+    <hyperlink ref="C24" r:id="rId21" display="https://github.com/NhoiBK195/TTCNPM/commit/d644cf9de36e01a156684965673be5844a0392dc" xr:uid="{97BD15F6-FFA8-443D-B34F-B49C7C95E0E5}"/>
+    <hyperlink ref="C26" r:id="rId22" display="https://github.com/NhoiBK195/TTCNPM/commit/af7fabbccabd8a21e790dcea4b80226b55815c57" xr:uid="{0816CA8B-0622-413C-819E-7CAAC03D0A81}"/>
+    <hyperlink ref="C27" r:id="rId23" display="https://github.com/NhoiBK195/TTCNPM/commit/237995ce91321f58bdd1dfc6786ef6e62b5eb73a" xr:uid="{F9A680CC-B2E7-42F4-B921-D1BE93C5FF0F}"/>
+    <hyperlink ref="C28" r:id="rId24" display="https://github.com/NhoiBK195/TTCNPM/commit/80c123bbc297d83a9b322a7dc29d47b4405bb4ee" xr:uid="{01218C76-0A07-4039-8578-0150D97C4E41}"/>
+    <hyperlink ref="C29" r:id="rId25" display="https://github.com/NhoiBK195/TTCNPM/commit/223713cc35042f342d63c22919e146ce9c43ceab" xr:uid="{F3B72124-4020-4B17-BF49-BD896D97F9B8}"/>
+    <hyperlink ref="C30" r:id="rId26" display="https://github.com/NhoiBK195/TTCNPM/commit/1d07e5757a0abf67545a9286494442dc9008f5d6" xr:uid="{055CAB28-427B-4937-B6D8-57E540AD1D24}"/>
+    <hyperlink ref="C32" r:id="rId27" display="https://github.com/NhoiBK195/TTCNPM/commit/0b47e486bb13947caf66131296bf30bba73fe4a8" xr:uid="{317BE34F-A6B6-4C51-A7DC-FBE863633B10}"/>
+    <hyperlink ref="C33" r:id="rId28" display="https://github.com/NhoiBK195/TTCNPM/commit/33c27b6c83df44f844b3145d907927289610f9ed" xr:uid="{5DE309A4-308F-4BDB-942C-2693B54012B6}"/>
+    <hyperlink ref="C34" r:id="rId29" display="https://github.com/NhoiBK195/TTCNPM/commit/00214405be005f56389c956e3177c6bb8807e8d8" xr:uid="{4127585E-EED3-4C89-AE41-3C032C59377C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="2" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>42</v>
       </c>
@@ -1187,7 +1824,7 @@
       </c>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>43549</v>
       </c>
@@ -1208,7 +1845,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="32"/>
       <c r="C3" s="4" t="s">
@@ -1225,7 +1862,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
       <c r="B4" s="32"/>
       <c r="C4" s="4" t="s">
@@ -1242,7 +1879,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="32"/>
       <c r="C5" s="4" t="s">
@@ -1259,7 +1896,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
       <c r="B6" s="33"/>
       <c r="C6" s="11" t="s">
@@ -1276,7 +1913,7 @@
       </c>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>43556</v>
       </c>
@@ -1297,7 +1934,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="35"/>
       <c r="C8" s="4" t="s">
@@ -1314,7 +1951,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
       <c r="B9" s="35"/>
       <c r="C9" s="4" t="s">
@@ -1331,7 +1968,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="35"/>
       <c r="C10" s="4" t="s">
@@ -1348,7 +1985,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
       <c r="B11" s="36"/>
       <c r="C11" s="11" t="s">
@@ -1365,7 +2002,7 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>43563</v>
       </c>
@@ -1381,10 +2018,12 @@
       <c r="E12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="35"/>
       <c r="C13" s="4" t="s">
@@ -1397,7 +2036,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="35"/>
       <c r="C14" s="4" t="s">
@@ -1406,13 +2045,10 @@
       <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
       <c r="B15" s="35"/>
       <c r="C15" s="4" t="s">
@@ -1421,11 +2057,15 @@
       <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30"/>
       <c r="B16" s="36"/>
       <c r="C16" s="11" t="s">
@@ -1438,41 +2078,64 @@
       <c r="F16" s="22"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>43570</v>
       </c>
       <c r="B17" s="34">
         <v>43576</v>
       </c>
+      <c r="D17" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="F17" s="24"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
       <c r="B18" s="35"/>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F18" s="23"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
       <c r="B19" s="35"/>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F19" s="23"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29"/>
       <c r="B20" s="35"/>
-      <c r="F20" s="23"/>
+      <c r="C20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30"/>
       <c r="B21" s="36"/>
+      <c r="D21" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="F21" s="25"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>43577</v>
       </c>
@@ -1482,31 +2145,31 @@
       <c r="F22" s="24"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="35"/>
       <c r="F23" s="23"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
       <c r="B24" s="35"/>
       <c r="F24" s="23"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
       <c r="B25" s="35"/>
       <c r="F25" s="23"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30"/>
       <c r="B26" s="36"/>
       <c r="F26" s="25"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
         <v>43584</v>
       </c>
@@ -1516,31 +2179,31 @@
       <c r="F27" s="24"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="35"/>
       <c r="F28" s="23"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
       <c r="B29" s="35"/>
       <c r="F29" s="23"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
       <c r="B30" s="35"/>
       <c r="F30" s="23"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30"/>
       <c r="B31" s="36"/>
       <c r="F31" s="25"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A17:A21"/>
